--- a/Data/Trade/SZ.000708.xlsx
+++ b/Data/Trade/SZ.000708.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>243</v>
+        <v>566</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.584852</v>
+        <v>22.58</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -487,12 +487,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>82.09606986899578</v>
+        <v>81.87842118487862</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>244</v>
+        <v>567</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.9937157</v>
+        <v>22.99</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -512,12 +512,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>91.61413259229849</v>
+        <v>91.46860940157703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>245</v>
+        <v>568</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23.4220491</v>
+        <v>23.42</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -537,12 +537,12 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>94.95551877005698</v>
+        <v>94.89809474116282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>246</v>
+        <v>569</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25.3690191</v>
+        <v>25.37</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -562,12 +562,12 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>96.21514105926124</v>
+        <v>96.26132170354597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>247</v>
+        <v>570</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25.61239035</v>
+        <v>25.61</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -587,12 +587,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>100.4940353950032</v>
+        <v>100.5121847777864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>248</v>
+        <v>571</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25.28140545</v>
+        <v>25.28</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -612,12 +612,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>95.66653982223605</v>
+        <v>95.68211871355575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>249</v>
+        <v>572</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25.0964433</v>
+        <v>25.1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -637,12 +637,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>90.16329633492475</v>
+        <v>90.2534554978406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>250</v>
+        <v>573</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24.50261745</v>
+        <v>24.5</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -662,12 +662,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>77.99409347198755</v>
+        <v>78.01336661498866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>251</v>
+        <v>574</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26.72216325</v>
+        <v>26.72</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -687,12 +687,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>90.07280158131977</v>
+        <v>90.06733363427421</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>252</v>
+        <v>575</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26.2256859</v>
+        <v>26.23</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -712,12 +712,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>87.60882588796252</v>
+        <v>87.68706171181108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25.35928425</v>
+        <v>25.36</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -737,12 +737,12 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>67.87145216688592</v>
+        <v>67.93141418660798</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>254</v>
+        <v>577</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26.17701165</v>
+        <v>26.18</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -762,12 +762,12 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>73.11891830572156</v>
+        <v>73.21474487670528</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>255</v>
+        <v>578</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26.72216325</v>
+        <v>26.72</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -787,12 +787,12 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>74.04573584836282</v>
+        <v>74.04374507531222</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>256</v>
+        <v>579</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26.48852685</v>
+        <v>26.49</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -812,12 +812,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>69.61508793473368</v>
+        <v>69.64621702365667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>257</v>
+        <v>580</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26.54693595</v>
+        <v>26.55</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -837,12 +837,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>69.22361665769375</v>
+        <v>69.30713377433591</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>258</v>
+        <v>581</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26.54693595</v>
+        <v>26.55</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -862,12 +862,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>69.51873649741816</v>
+        <v>69.62618966497135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>259</v>
+        <v>582</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26.8876557</v>
+        <v>26.89</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -887,12 +887,12 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>77.20992827991839</v>
+        <v>77.31234161412249</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>260</v>
+        <v>583</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27.69564825</v>
+        <v>27.7</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -912,12 +912,12 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>82.95260747190238</v>
+        <v>83.08925425368076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>261</v>
+        <v>584</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27.062883</v>
+        <v>27.06</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -937,12 +937,12 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>71.52343457722915</v>
+        <v>71.51356090311396</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>262</v>
+        <v>585</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>27.1602315</v>
+        <v>27.16</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -962,12 +962,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>63.37527043446687</v>
+        <v>63.35024600849658</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>263</v>
+        <v>586</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27.67617855</v>
+        <v>27.68</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -984,15 +984,15 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>69.95089333506775</v>
+        <v>70.05338743060992</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>264</v>
+        <v>587</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29.73996675</v>
+        <v>29.74</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1012,12 +1012,12 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>88.17624654047378</v>
+        <v>88.21650095112406</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>265</v>
+        <v>588</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32.69936115</v>
+        <v>32.7</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1037,12 +1037,12 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>100.5724765643303</v>
+        <v>100.5873340403078</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>266</v>
+        <v>589</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32.03739135</v>
+        <v>32.04</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1062,12 +1062,12 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>95.11144810339914</v>
+        <v>95.13544623710467</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>267</v>
+        <v>590</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32.2223535</v>
+        <v>32.22</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1087,12 +1087,12 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>93.65034456726923</v>
+        <v>93.6259160562054</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>268</v>
+        <v>591</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29.00011815</v>
+        <v>29</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1112,12 +1112,12 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>56.76003182168242</v>
+        <v>56.73739258120463</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>269</v>
+        <v>592</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>29.5355349</v>
+        <v>29.54</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1137,12 +1137,12 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.67888007763301</v>
+        <v>44.70987441766897</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>270</v>
+        <v>593</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32.48519445</v>
+        <v>32.49</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1162,12 +1162,12 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>72.05467806648738</v>
+        <v>72.11985738709882</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>271</v>
+        <v>594</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34.4808387</v>
+        <v>34.48</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1187,12 +1187,12 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>87.91006477787457</v>
+        <v>87.92770090356052</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>272</v>
+        <v>595</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>31.99845195</v>
+        <v>32</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1212,12 +1212,12 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>69.03855418099397</v>
+        <v>69.05558888557653</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>273</v>
+        <v>596</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>33.3515961</v>
+        <v>33.35</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1237,12 +1237,12 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>73.58850077734903</v>
+        <v>73.57308526242679</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>274</v>
+        <v>597</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30.46034565</v>
+        <v>30.46</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1262,12 +1262,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>46.0621876722287</v>
+        <v>46.04465791873383</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>275</v>
+        <v>598</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>30.67451235</v>
+        <v>30.67</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1287,12 +1287,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>35.23860111692116</v>
+        <v>35.17838955846378</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>276</v>
+        <v>599</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>28.31867865</v>
+        <v>28.32</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1312,12 +1312,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.725997469428378</v>
+        <v>6.707279207847478</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>27.38413305</v>
+        <v>27.38</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -1337,12 +1337,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.156605790386237</v>
+        <v>-5.203936392797758</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>278</v>
+        <v>601</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>27.94875435</v>
+        <v>27.95</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1362,12 +1362,12 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.560533313759279</v>
+        <v>-3.571996021007934</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>279</v>
+        <v>602</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>27.59829975</v>
+        <v>27.6</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -1387,12 +1387,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.701305723796196</v>
+        <v>-3.689830032684739</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>280</v>
+        <v>603</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>29.73996675</v>
+        <v>29.74</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1412,12 +1412,12 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>17.53167952978629</v>
+        <v>17.53918961720268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>281</v>
+        <v>604</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30.32405775</v>
+        <v>30.32</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1437,12 +1437,12 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>34.55700352367197</v>
+        <v>34.52490124868446</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>282</v>
+        <v>605</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>29.20455</v>
+        <v>29.2</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1462,12 +1462,12 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>43.53918136287038</v>
+        <v>43.46610173644601</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>283</v>
+        <v>606</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>28.27973925</v>
+        <v>28.28</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1487,12 +1487,12 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>39.15554645864702</v>
+        <v>39.1262929016152</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>284</v>
+        <v>607</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25.80708735</v>
+        <v>25.81</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1512,12 +1512,12 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.98561385459366</v>
+        <v>11.01334629704866</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>285</v>
+        <v>608</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>26.4593223</v>
+        <v>26.46</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1537,12 +1537,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>8.443375932037064</v>
+        <v>8.46957692525416</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>286</v>
+        <v>609</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>26.85845115</v>
+        <v>26.86</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1562,12 +1562,12 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>13.04200632266839</v>
+        <v>13.07660563545397</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>287</v>
+        <v>610</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26.89739055</v>
+        <v>26.9</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1587,12 +1587,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.54801359945257</v>
+        <v>16.59837959868761</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>288</v>
+        <v>611</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>26.3035647</v>
+        <v>26.3</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1612,12 +1612,12 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>11.4096896882342</v>
+        <v>11.38960522454803</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>289</v>
+        <v>612</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>26.3814435</v>
+        <v>26.38</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1637,12 +1637,12 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>10.26996093976447</v>
+        <v>10.24076409882301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>290</v>
+        <v>613</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>26.48852685</v>
+        <v>26.49</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1662,12 +1662,12 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>17.27904898713609</v>
+        <v>17.29106171122943</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>291</v>
+        <v>614</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>26.87792085</v>
+        <v>26.88</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1687,12 +1687,12 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>28.12409074097694</v>
+        <v>28.16787575222602</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>292</v>
+        <v>615</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>25.9531101</v>
+        <v>25.95</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1712,12 +1712,12 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>21.4875581471879</v>
+        <v>21.41988333094095</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>293</v>
+        <v>616</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>26.06019345</v>
+        <v>26.06</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -1737,12 +1737,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>25.90953470409531</v>
+        <v>25.86851527831036</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>294</v>
+        <v>617</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>25.69026915</v>
+        <v>25.69</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1762,12 +1762,12 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>36.55810803866206</v>
+        <v>36.53281458846244</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>295</v>
+        <v>618</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>24.0061401</v>
+        <v>24.01</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -1787,12 +1787,12 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>15.59060289262793</v>
+        <v>15.66040600888344</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>296</v>
+        <v>619</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>24.44420835</v>
+        <v>24.44</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -1812,12 +1812,12 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>14.1041418711666</v>
+        <v>14.05366896675771</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>297</v>
+        <v>620</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>24.73625385</v>
+        <v>24.74</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -1837,12 +1837,12 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>19.72287195507104</v>
+        <v>19.77596905203957</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>298</v>
+        <v>621</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>24.98935995</v>
+        <v>24.99</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -1862,12 +1862,12 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>27.93243517724232</v>
+        <v>27.97272348646303</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>299</v>
+        <v>622</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>25.4274282</v>
+        <v>25.43</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -1887,12 +1887,12 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>40.93457070767528</v>
+        <v>41.00635080114661</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>25.700004</v>
+        <v>25.7</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -1912,12 +1912,12 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>61.7733179532891</v>
+        <v>61.80562413766295</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>301</v>
+        <v>624</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1937,12 +1937,12 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>67.08386072919508</v>
+        <v>67.0951208954753</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>302</v>
+        <v>625</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1962,12 +1962,12 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>80.43316566569995</v>
+        <v>80.4338209165745</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>303</v>
+        <v>626</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1987,12 +1987,12 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>101.9270662949385</v>
+        <v>101.9229354444247</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>304</v>
+        <v>627</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2012,12 +2012,12 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>111.3472965055606</v>
+        <v>111.3414974822645</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>305</v>
+        <v>628</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2037,12 +2037,12 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>106.3646584627461</v>
+        <v>106.3587623652464</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>306</v>
+        <v>629</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2062,12 +2062,12 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>81.97066679649382</v>
+        <v>81.96538267684807</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>307</v>
+        <v>630</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2087,12 +2087,12 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>58.95145959832371</v>
+        <v>58.9470345932404</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>308</v>
+        <v>631</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2112,12 +2112,12 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>33.40399592312836</v>
+        <v>33.40044441397094</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>309</v>
+        <v>632</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2137,12 +2137,12 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>31.98630648376829</v>
+        <v>31.98353780715092</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>310</v>
+        <v>633</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2162,12 +2162,12 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>19.5706740705611</v>
+        <v>19.56856095025239</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>311</v>
+        <v>634</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2187,12 +2187,12 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-1.022198159953732</v>
+        <v>-1.023785130757616</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>312</v>
+        <v>635</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2212,12 +2212,12 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>24.22975742926197</v>
+        <v>24.22858063277174</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>313</v>
+        <v>636</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2237,12 +2237,12 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>39.94528176958453</v>
+        <v>39.94441802795485</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>314</v>
+        <v>637</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2262,12 +2262,12 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>38.25134282083248</v>
+        <v>38.25071418598857</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>315</v>
+        <v>638</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2287,12 +2287,12 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>61.64386426210183</v>
+        <v>61.6434099674787</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>316</v>
+        <v>639</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2312,12 +2312,12 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>79.41911129815288</v>
+        <v>79.41878496525264</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>317</v>
+        <v>640</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2337,12 +2337,12 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>57.1059865032674</v>
+        <v>57.10575330145515</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>318</v>
+        <v>641</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2362,12 +2362,12 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>40.98282142740015</v>
+        <v>40.98265552849503</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>319</v>
+        <v>642</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2387,12 +2387,12 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>72.87443456841582</v>
+        <v>72.87431701512554</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>320</v>
+        <v>643</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2412,12 +2412,12 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>67.88929957551731</v>
+        <v>67.88921657064365</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2437,12 +2437,12 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>46.51447881210224</v>
+        <v>46.51442038484416</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>322</v>
+        <v>645</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2462,12 +2462,12 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>57.44053401662536</v>
+        <v>57.44049300466952</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2487,12 +2487,12 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>41.26529965902141</v>
+        <v>41.26527094408392</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>324</v>
+        <v>647</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2512,12 +2512,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>36.06754687751938</v>
+        <v>36.06752681847199</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>325</v>
+        <v>648</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2537,12 +2537,12 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>5.182813364178713</v>
+        <v>5.182799380976633</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>326</v>
+        <v>649</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2562,12 +2562,12 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.325788247656746</v>
+        <v>-0.3257979767940213</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>327</v>
+        <v>650</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2587,12 +2587,12 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-9.756742219914145</v>
+        <v>-9.756748977340685</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>328</v>
+        <v>651</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>2.779189026230171</v>
+        <v>2.779184340389115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>329</v>
+        <v>652</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2637,12 +2637,12 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>32.7359385955658</v>
+        <v>32.73593535107841</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>330</v>
+        <v>653</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2662,12 +2662,12 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>78.91797402603216</v>
+        <v>78.91797178264498</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>331</v>
+        <v>654</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2687,12 +2687,12 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>77.38740894154456</v>
+        <v>77.38740739235608</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>332</v>
+        <v>655</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2712,12 +2712,12 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>63.67947333803691</v>
+        <v>63.67947226951324</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>333</v>
+        <v>656</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2737,12 +2737,12 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>49.33388510547238</v>
+        <v>49.33388436930233</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>334</v>
+        <v>657</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2762,12 +2762,12 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>30.92250586647923</v>
+        <v>30.9225053598186</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>335</v>
+        <v>658</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2787,12 +2787,12 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>33.61515258820371</v>
+        <v>33.6151522398429</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>336</v>
+        <v>659</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2812,12 +2812,12 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>30.92325767925168</v>
+        <v>30.92325743995308</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>337</v>
+        <v>660</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2837,12 +2837,12 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>26.88309492033368</v>
+        <v>26.8830947560959</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>338</v>
+        <v>661</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2862,12 +2862,12 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>15.06035853158861</v>
+        <v>15.06035841895985</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>339</v>
+        <v>662</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2887,12 +2887,12 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>3.904584805247758</v>
+        <v>3.904584728070645</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>340</v>
+        <v>663</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2912,12 +2912,12 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.5122894726600649</v>
+        <v>-0.5122895255056648</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>341</v>
+        <v>664</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2937,12 +2937,12 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.373156165056066</v>
+        <v>-4.373156201215927</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>342</v>
+        <v>665</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2962,12 +2962,12 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>7.529452234803593</v>
+        <v>7.52945221007738</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>343</v>
+        <v>666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2987,12 +2987,12 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8710750765404072</v>
+        <v>0.8710750596431822</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>344</v>
+        <v>667</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3012,12 +3012,12 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>17.04391842747403</v>
+        <v>17.04391841593381</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>345</v>
+        <v>668</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3037,12 +3037,12 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>21.49572148741149</v>
+        <v>21.49572147953442</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>346</v>
+        <v>669</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3062,12 +3062,12 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>16.87409410610297</v>
+        <v>16.87409410072918</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>347</v>
+        <v>670</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3087,12 +3087,12 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>49.24386195236115</v>
+        <v>49.24386194869704</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>348</v>
+        <v>671</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3112,12 +3112,12 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>74.5558647264335</v>
+        <v>74.55586472393637</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>349</v>
+        <v>672</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3137,12 +3137,12 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>86.90744206635546</v>
+        <v>86.90744206465443</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>350</v>
+        <v>673</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3162,12 +3162,12 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>45.47356879805068</v>
+        <v>45.47356879689249</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>351</v>
+        <v>674</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3187,12 +3187,12 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>26.51245150248526</v>
+        <v>26.51245150169702</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>352</v>
+        <v>675</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3212,12 +3212,12 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>6.091841267672081</v>
+        <v>6.091841267135834</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>353</v>
+        <v>676</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3237,12 +3237,12 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>20.88940779494496</v>
+        <v>20.8894077945803</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>354</v>
+        <v>677</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3262,12 +3262,12 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>13.87521744889772</v>
+        <v>13.87521744864984</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>355</v>
+        <v>678</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3287,12 +3287,12 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>14.29547376903094</v>
+        <v>14.2954737688625</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>356</v>
+        <v>679</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3312,12 +3312,12 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>5.486460974012701</v>
+        <v>5.486460973898282</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>357</v>
+        <v>680</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3337,12 +3337,12 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>12.08607602567508</v>
+        <v>12.08607602559739</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>358</v>
+        <v>681</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3362,12 +3362,12 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>8.568814052951886</v>
+        <v>8.56881405289915</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>359</v>
+        <v>682</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3387,12 +3387,12 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>3.621228603681125</v>
+        <v>3.621228603645335</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>360</v>
+        <v>683</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3412,12 +3412,12 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.8197934112036123</v>
+        <v>-0.819793411227888</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>361</v>
+        <v>684</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3437,12 +3437,12 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>7.486035061484397</v>
+        <v>7.486035061467934</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>362</v>
+        <v>685</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3462,12 +3462,12 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>5.091019512229341</v>
+        <v>5.091019512218182</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>363</v>
+        <v>686</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3487,12 +3487,12 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>8.443651027086059</v>
+        <v>8.443651027078484</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>364</v>
+        <v>687</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3512,12 +3512,12 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>22.07489111004462</v>
+        <v>22.07489111003948</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>365</v>
+        <v>688</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3537,12 +3537,12 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>63.9543850117931</v>
+        <v>63.9543850117896</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>366</v>
+        <v>689</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3562,12 +3562,12 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>75.24358570973484</v>
+        <v>75.24358570973249</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>367</v>
+        <v>690</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3587,12 +3587,12 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>89.69849821608427</v>
+        <v>89.69849821608268</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>368</v>
+        <v>691</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3612,12 +3612,12 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>70.67123554632977</v>
+        <v>70.6712355463287</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>369</v>
+        <v>692</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3637,12 +3637,12 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>63.61319469373963</v>
+        <v>63.6131946937389</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>370</v>
+        <v>693</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3662,12 +3662,12 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>36.51524389383708</v>
+        <v>36.51524389383657</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>371</v>
+        <v>694</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3687,12 +3687,12 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>44.99967958631976</v>
+        <v>44.99967958631943</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>372</v>
+        <v>695</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3712,12 +3712,12 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>65.62829294156261</v>
+        <v>65.62829294156241</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>373</v>
+        <v>696</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3737,12 +3737,12 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>33.22507558104449</v>
+        <v>33.22507558104435</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>374</v>
+        <v>697</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3762,12 +3762,12 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>9.173160639566518</v>
+        <v>9.173160639566419</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>375</v>
+        <v>698</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3787,12 +3787,12 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>-3.422311708287964</v>
+        <v>-3.422311708288049</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>376</v>
+        <v>699</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>25.12409183503073</v>
+        <v>25.12409183503067</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>377</v>
+        <v>700</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3837,12 +3837,12 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>76.94827744107565</v>
+        <v>76.9482774410756</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>378</v>
+        <v>701</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>379</v>
+        <v>702</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3887,12 +3887,12 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>73.68212472230879</v>
+        <v>73.68212472230877</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>380</v>
+        <v>703</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3912,12 +3912,12 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>51.95471805661903</v>
+        <v>51.954718056619</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>381</v>
+        <v>704</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3937,12 +3937,12 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>59.34392771429019</v>
+        <v>59.34392771429016</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>382</v>
+        <v>705</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3962,12 +3962,12 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>65.4818343258418</v>
+        <v>65.48183432584177</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>383</v>
+        <v>706</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3987,12 +3987,12 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>73.17508806426277</v>
+        <v>73.17508806426275</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>384</v>
+        <v>707</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4012,12 +4012,12 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>65.82721176760707</v>
+        <v>65.82721176760705</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>385</v>
+        <v>708</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4037,12 +4037,12 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>67.58257090075297</v>
+        <v>67.58257090075296</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>386</v>
+        <v>709</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>387</v>
+        <v>710</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>388</v>
+        <v>711</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>389</v>
+        <v>712</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>390</v>
+        <v>713</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>391</v>
+        <v>714</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>392</v>
+        <v>715</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>393</v>
+        <v>716</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>394</v>
+        <v>717</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>395</v>
+        <v>718</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>396</v>
+        <v>719</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>397</v>
+        <v>720</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>398</v>
+        <v>721</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>399</v>
+        <v>722</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>400</v>
+        <v>723</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>401</v>
+        <v>724</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>402</v>
+        <v>725</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>403</v>
+        <v>726</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>404</v>
+        <v>727</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>405</v>
+        <v>728</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>406</v>
+        <v>729</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>407</v>
+        <v>730</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>408</v>
+        <v>731</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>409</v>
+        <v>732</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>410</v>
+        <v>733</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>411</v>
+        <v>734</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>412</v>
+        <v>735</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>413</v>
+        <v>736</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>414</v>
+        <v>737</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>415</v>
+        <v>738</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4788,6 +4788,381 @@
       </c>
       <c r="G174" t="n">
         <v>48.43437631298411</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2021-09-16</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>32.24209856221374</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2021-09-17</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D176" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>12.38391125627871</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2021-09-22</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="D177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-4.61083685700028</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2021-09-23</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>23</v>
+      </c>
+      <c r="D178" t="b">
+        <v>0</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-15.66098482296543</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2021-09-24</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D179" t="b">
+        <v>0</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-18.95226446176444</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2021-09-27</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="D180" t="b">
+        <v>0</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-14.92289887013025</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D181" t="b">
+        <v>0</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-9.386135186994586</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="D182" t="b">
+        <v>0</v>
+      </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-8.156104956408747</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D183" t="b">
+        <v>0</v>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-4.373441865938084</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="D184" t="b">
+        <v>0</v>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5.094555859893074</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2021-10-11</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D185" t="b">
+        <v>0</v>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>19.4665728468715</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="D186" t="b">
+        <v>0</v>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>15.73098440867886</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2021-10-13</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="D187" t="b">
+        <v>0</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>20.75059658531895</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2021-10-14</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="D188" t="b">
+        <v>0</v>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>32.22263300541312</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2021-10-15</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="D189" t="b">
+        <v>0</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>46.48838604999406</v>
       </c>
     </row>
   </sheetData>
